--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value448.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value448.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.324496841239748</v>
+        <v>1.093087315559387</v>
       </c>
       <c r="B1">
-        <v>1.42865233694021</v>
+        <v>1.891440391540527</v>
       </c>
       <c r="C1">
-        <v>1.602286139201987</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.466538714151198</v>
+        <v>2.242296457290649</v>
       </c>
       <c r="E1">
-        <v>2.608660057339555</v>
+        <v>1.235905170440674</v>
       </c>
     </row>
   </sheetData>
